--- a/原始資料/互動媒體設計2A.xlsx
+++ b/原始資料/互動媒體設計2A.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="NEW" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
   <si>
     <t>成就名稱</t>
   </si>
@@ -58,6 +59,12 @@
     <t>以身試險</t>
   </si>
   <si>
+    <t>回問題</t>
+  </si>
+  <si>
+    <t>答對死亡</t>
+  </si>
+  <si>
     <t>開學第一周出席</t>
   </si>
   <si>
@@ -221,13 +228,43 @@
   </si>
   <si>
     <t>王毓茹</t>
+  </si>
+  <si>
+    <t>簡宇健</t>
+  </si>
+  <si>
+    <t>曾芃潔</t>
+  </si>
+  <si>
+    <t>張淯茜</t>
+  </si>
+  <si>
+    <t>王士誠</t>
+  </si>
+  <si>
+    <t>江采菁</t>
+  </si>
+  <si>
+    <t>鄭秉益</t>
+  </si>
+  <si>
+    <t>黎思言</t>
+  </si>
+  <si>
+    <t>張浩千</t>
+  </si>
+  <si>
+    <t>黃思語</t>
+  </si>
+  <si>
+    <t>王力得</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -248,13 +285,24 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -269,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,6 +331,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -292,12 +343,15 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -306,12 +360,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -321,6 +382,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -584,9 +649,13 @@
         <v>14</v>
       </c>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -601,52 +670,57 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="R2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="U2" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="W2" s="8"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -661,54 +735,60 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="U3" s="4">
+        <v>1.11051082E8</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1.11051043E8</v>
+      </c>
+      <c r="W3" s="9">
+        <v>10.0</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -719,63 +799,67 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>20.0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>10.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <v>-1.0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="10">
         <v>3.0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="10">
         <v>5.0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="10">
         <v>5.0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="10">
         <v>5.0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="10">
         <v>10.0</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="10">
         <v>5.0</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="10">
         <v>10.0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>5.0</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <v>3.0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <v>-2.0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <v>-1.0</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="U4" s="4">
+        <v>1.11051067E8</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1.11051077E8</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -786,743 +870,1797 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>1.09051026E8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11">
         <f t="shared" ref="C5:C25" si="1">SUM(D5:P5)</f>
         <v>120</v>
       </c>
-      <c r="D5" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="D5" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F5" s="13">
         <v>20.0</v>
       </c>
+      <c r="U5" s="12">
+        <v>1.11051096E8</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1.11051084E8</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>1.09051027E8</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D6" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F6" s="12">
         <v>20.0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>10.0</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="U6" s="12">
+        <v>1.11051007E8</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1.11021103E8</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>1.09051042E8</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D7" s="10">
-        <v>100.0</v>
+      <c r="D7" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="U7" s="12">
+        <v>1.11051061E8</v>
+      </c>
+      <c r="V7" s="14">
+        <v>1.11051039E8</v>
+      </c>
+      <c r="W7" s="14">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>1.09051219E8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>100.0</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="10"/>
+      <c r="U8" s="12">
+        <v>1.11051054E8</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1.11051033E8</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>1.10051004E8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>100.0</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="10"/>
+      <c r="V9" s="12">
+        <v>1.11051044E8</v>
+      </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>1.10051044E8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>100.0</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="10"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="8"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>1.1005106E8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D11" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="D11" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F11" s="12">
         <v>20.0</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="10"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="8"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>1.1005108E8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>100.0</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="10"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="8"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>1.10051081E8</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="12">
         <v>100.0</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <v>1.10051132E8</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <v>100.0</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>1.11051006E8</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D15" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F15" s="12">
         <v>20.0</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>1.11051007E8</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="11">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D16" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F16" s="12">
         <v>20.0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="12">
         <v>10.0</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="12"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>1.11051025E8</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D17" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F17" s="12">
         <v>20.0</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>1.11051033E8</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D18" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F18" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>1.11051034E8</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D19" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F19" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <v>1.11051037E8</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D20" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="D20" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F20" s="12">
         <v>20.0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="12">
         <v>10.0</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>1.11051039E8</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D21" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="D21" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9">
+      <c r="A22" s="11">
         <v>1.11051042E8</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="D22" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F22" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <v>1.11051043E8</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D23" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="D23" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F23" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9">
+      <c r="A24" s="11">
         <v>1.11051054E8</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D24" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="D24" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F24" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9">
+      <c r="A25" s="11">
         <v>1.11051058E8</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="B25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D25" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="D25" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F25" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12">
+      <c r="A26" s="15">
         <v>1.11051065E8</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="B26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="11">
         <f>SUM(D26:S26)</f>
         <v>100</v>
       </c>
-      <c r="D26" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="D26" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="9">
+      <c r="A27" s="11">
         <v>1.11051067E8</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="11">
         <f t="shared" ref="C27:C35" si="2">SUM(D27:P27)</f>
         <v>120</v>
       </c>
-      <c r="D27" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="D27" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F27" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>1.11051072E8</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="11">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="D28" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="D28" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9">
+      <c r="A29" s="11">
         <v>1.11051075E8</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="11">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="D29" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="D29" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F29" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9">
+      <c r="A30" s="11">
         <v>1.11051077E8</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="11">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="D30" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="D30" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F30" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <v>1.11051079E8</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="B31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="11">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="D31" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="D31" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F31" s="12">
         <v>20.0</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="12">
         <v>10.0</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="9">
+      <c r="A32" s="11">
         <v>1.11051082E8</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="11">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="D32" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="D32" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F32" s="12">
         <v>20.0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="12">
         <v>10.0</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="9">
+      <c r="A33" s="11">
         <v>1.11051084E8</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="11">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="D33" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="D33" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F33" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="15">
         <v>1.11051096E8</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="B34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="11">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="D34" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="D34" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="9">
+      <c r="A35" s="11">
         <v>1.1105109E8</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="B35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="11">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="D35" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F35" s="10">
+      <c r="D35" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F35" s="12">
         <v>20.0</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="12">
         <v>10.0</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="12">
+      <c r="A36" s="15">
         <v>1.11051096E8</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="11">
         <f>SUM(D36:S36)</f>
         <v>100</v>
       </c>
-      <c r="D36" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="D36" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="9">
+      <c r="A37" s="11">
         <v>1.11051103E8</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="11">
         <f t="shared" ref="C37:C39" si="3">SUM(D37:P37)</f>
         <v>120</v>
       </c>
-      <c r="D37" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="D37" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F37" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9">
+      <c r="A38" s="11">
         <v>1.12051072E8</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="11">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="D38" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="F38" s="12">
         <v>20.0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="12">
         <v>10.0</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="9">
+      <c r="A39" s="11">
         <v>1.12051126E8</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="B39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="12">
         <v>100.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3.0" ySplit="4.0" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
+      <selection activeCell="D5" sqref="D5" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="4">
+        <v>1.11051082E8</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1.11051043E8</v>
+      </c>
+      <c r="W3" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-2.0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-1.0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="4">
+        <v>1.11051067E8</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1.11051077E8</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17">
+        <v>1.0902106E8</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="F5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="U5" s="12">
+        <v>1.11051096E8</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1.11051084E8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17">
+        <v>1.09051026E8</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="F6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="U6" s="12">
+        <v>1.11051007E8</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1.11021103E8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17">
+        <v>1.09051027E8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="F7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="U7" s="12">
+        <v>1.11051061E8</v>
+      </c>
+      <c r="V7" s="12">
+        <v>1.11051039E8</v>
+      </c>
+      <c r="W7" s="12">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17">
+        <v>1.09051032E8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="F8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="10"/>
+      <c r="U8" s="12">
+        <v>1.11051054E8</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1.11051033E8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17">
+        <v>1.09051042E8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="F9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="10"/>
+      <c r="V9" s="12">
+        <v>1.11051044E8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="17">
+        <v>1.09051046E8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="F10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="10"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17">
+        <v>1.09051219E8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="F11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="10"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17">
+        <v>1.10021057E8</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="F12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="10"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="17">
+        <v>1.10021061E8</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="F13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17">
+        <v>1.10021072E8</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="F14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17">
+        <v>1.10021103E8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="F15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17">
+        <v>1.10021187E8</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="F16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17">
+        <v>1.10051004E8</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="F17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17">
+        <v>1.10051044E8</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="F18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17">
+        <v>1.1005106E8</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="F19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="17">
+        <v>1.1005108E8</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="F20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="17">
+        <v>1.10051081E8</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="F21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17">
+        <v>1.10051132E8</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="F22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17">
+        <v>1.10052027E8</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="F23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17">
+        <v>1.11051006E8</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="F24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17">
+        <v>1.11051007E8</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="F25" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17">
+        <v>1.11051025E8</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="F26" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="17">
+        <v>1.11051029E8</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="F27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="17">
+        <v>1.11051033E8</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="F28" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="17">
+        <v>1.11051034E8</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="F29" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="17">
+        <v>1.11051037E8</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="F30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="17">
+        <v>1.11051039E8</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="F31" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17">
+        <v>1.11051042E8</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="F32" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="17">
+        <v>1.11051043E8</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="F33" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17">
+        <v>1.11051054E8</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="F34" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="17">
+        <v>1.11051058E8</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="F35" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="17">
+        <v>1.11051065E8</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="F36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="17">
+        <v>1.11051067E8</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="F37" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="17">
+        <v>1.11051072E8</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="F38" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="17">
+        <v>1.11051077E8</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="F39" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="17">
+        <v>1.11051079E8</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="F40" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="17">
+        <v>1.11051082E8</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="F41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="17">
+        <v>1.11051084E8</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="F42" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="17">
+        <v>1.11051096E8</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="F43" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="17">
+        <v>1.11051103E8</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="F44" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="17">
+        <v>1.12051072E8</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="F45" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="17">
+        <v>1.12051126E8</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="F46" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
